--- a/data/trans_orig/P44AS1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P44AS1-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD8F707A-1364-4125-B780-477CC21287A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B58E92F-7A94-427D-98EE-7A3B0B8B120D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B715A308-75DF-434B-84A8-82718B2696EE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EC338D78-82A5-4958-AB73-C9CA0E16ED30}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="560">
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2012 (Tasa respuesta: 2,95%)</t>
   </si>
@@ -91,7 +91,7 @@
     <t>20,82%</t>
   </si>
   <si>
-    <t>83,97%</t>
+    <t>80,51%</t>
   </si>
   <si>
     <t>Endoscopia (Colonoscopia/Sigmoidoscopia/Rectoscopia)</t>
@@ -106,9 +106,6 @@
     <t>60,53%</t>
   </si>
   <si>
-    <t>16,39%</t>
-  </si>
-  <si>
     <t>Sangre oculta en heces</t>
   </si>
   <si>
@@ -127,7 +124,7 @@
     <t>18,64%</t>
   </si>
   <si>
-    <t>77,42%</t>
+    <t>82,42%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,25 +136,25 @@
     <t>23,38%</t>
   </si>
   <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
   </si>
   <si>
     <t>7,8%</t>
   </si>
   <si>
-    <t>32,14%</t>
+    <t>40,22%</t>
   </si>
   <si>
     <t>16,05%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
   </si>
   <si>
     <t>30,06%</t>
@@ -166,70 +163,70 @@
     <t>7,67%</t>
   </si>
   <si>
-    <t>60,68%</t>
+    <t>60,08%</t>
   </si>
   <si>
     <t>50,04%</t>
   </si>
   <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
   </si>
   <si>
     <t>39,46%</t>
   </si>
   <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
   </si>
   <si>
     <t>15,75%</t>
   </si>
   <si>
-    <t>47,64%</t>
+    <t>40,65%</t>
   </si>
   <si>
     <t>11,47%</t>
   </si>
   <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
   </si>
   <si>
     <t>38,89%</t>
   </si>
   <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
   </si>
   <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
   </si>
   <si>
     <t>33,02%</t>
   </si>
   <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -238,1495 +235,1489 @@
     <t>8,18%</t>
   </si>
   <si>
-    <t>27,28%</t>
+    <t>25,84%</t>
   </si>
   <si>
     <t>23,41%</t>
   </si>
   <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
   </si>
   <si>
     <t>17,01%</t>
   </si>
   <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2015 (Tasa respuesta: 3,85%)</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
   </si>
   <si>
     <t>25,18%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2023 (Tasa respuesta: 18,38%)</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
   </si>
   <si>
     <t>54,07%</t>
   </si>
   <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
   </si>
   <si>
     <t>6,32%</t>
   </si>
   <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2015 (Tasa respuesta: 3,85%)</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2023 (Tasa respuesta: 18,38%)</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
   </si>
   <si>
     <t>57,87%</t>
   </si>
   <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
   </si>
   <si>
     <t>20,71%</t>
   </si>
   <si>
-    <t>12,67%</t>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
   </si>
   <si>
     <t>11,49%</t>
   </si>
   <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
   </si>
   <si>
     <t>16,46%</t>
   </si>
   <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
   </si>
 </sst>
 </file>
@@ -2138,7 +2129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0E79DE-788D-4128-B4CD-CE55B77EEFE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A5DA15-1017-4C2E-87F7-E8A9B6A9C8C4}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2346,7 +2337,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>15</v>
@@ -2355,7 +2346,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -2385,7 +2376,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -2400,13 +2391,13 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -2415,7 +2406,7 @@
         <v>909</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
@@ -2436,7 +2427,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2445,13 +2436,13 @@
         <v>909</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2466,13 +2457,13 @@
         <v>1685</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -2481,13 +2472,13 @@
         <v>3192</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -2496,18 +2487,18 @@
         <v>4876</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2519,13 +2510,13 @@
         <v>3160</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2534,13 +2525,13 @@
         <v>937</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -2549,13 +2540,13 @@
         <v>4097</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,13 +2561,13 @@
         <v>4063</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2585,13 +2576,13 @@
         <v>6009</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -2600,19 +2591,19 @@
         <v>10072</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -2621,13 +2612,13 @@
         <v>1036</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -2636,13 +2627,13 @@
         <v>1891</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -2651,19 +2642,19 @@
         <v>2927</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7">
         <v>5</v>
@@ -2672,13 +2663,13 @@
         <v>5256</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -2687,13 +2678,13 @@
         <v>3172</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -2702,13 +2693,13 @@
         <v>8429</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,13 +2714,13 @@
         <v>13516</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -2738,13 +2729,13 @@
         <v>12009</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -2753,18 +2744,18 @@
         <v>25525</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2776,13 +2767,13 @@
         <v>2158</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -2791,13 +2782,13 @@
         <v>8514</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -2806,13 +2797,13 @@
         <v>10672</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,13 +2818,13 @@
         <v>10067</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H15" s="7">
         <v>14</v>
@@ -2842,13 +2833,13 @@
         <v>15235</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M15" s="7">
         <v>22</v>
@@ -2857,19 +2848,19 @@
         <v>25302</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="7">
         <v>2</v>
@@ -2878,13 +2869,13 @@
         <v>2077</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2899,7 +2890,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2908,19 +2899,19 @@
         <v>2077</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="7">
         <v>10</v>
@@ -2929,13 +2920,13 @@
         <v>12078</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -2944,13 +2935,13 @@
         <v>12620</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -2959,13 +2950,13 @@
         <v>24698</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,13 +2971,13 @@
         <v>26380</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H18" s="7">
         <v>33</v>
@@ -2995,13 +2986,13 @@
         <v>36369</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M18" s="7">
         <v>55</v>
@@ -3010,18 +3001,18 @@
         <v>62749</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3033,13 +3024,13 @@
         <v>3252</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -3048,13 +3039,13 @@
         <v>5600</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -3063,13 +3054,13 @@
         <v>8852</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,13 +3075,13 @@
         <v>13683</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -3099,13 +3090,13 @@
         <v>12026</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -3114,19 +3105,19 @@
         <v>25708</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -3141,7 +3132,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -3156,7 +3147,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -3171,13 +3162,13 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>9</v>
@@ -3186,13 +3177,13 @@
         <v>9420</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -3201,13 +3192,13 @@
         <v>8794</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -3216,13 +3207,13 @@
         <v>18215</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,13 +3228,13 @@
         <v>26355</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -3252,13 +3243,13 @@
         <v>26420</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M23" s="7">
         <v>45</v>
@@ -3267,18 +3258,18 @@
         <v>52775</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3290,13 +3281,13 @@
         <v>5154</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -3305,13 +3296,13 @@
         <v>6756</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -3320,13 +3311,13 @@
         <v>11910</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,13 +3332,13 @@
         <v>15552</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -3356,13 +3347,13 @@
         <v>12044</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M25" s="7">
         <v>23</v>
@@ -3371,19 +3362,19 @@
         <v>27596</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7">
         <v>6</v>
@@ -3392,13 +3383,13 @@
         <v>7318</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3407,13 +3398,13 @@
         <v>977</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -3422,19 +3413,19 @@
         <v>8295</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="7">
         <v>13</v>
@@ -3443,13 +3434,13 @@
         <v>13407</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H27" s="7">
         <v>8</v>
@@ -3458,13 +3449,13 @@
         <v>9185</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M27" s="7">
         <v>21</v>
@@ -3473,13 +3464,13 @@
         <v>22592</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,13 +3485,13 @@
         <v>41431</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28" s="7">
         <v>26</v>
@@ -3509,13 +3500,13 @@
         <v>28962</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M28" s="7">
         <v>62</v>
@@ -3524,13 +3515,13 @@
         <v>70393</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3538,13 @@
         <v>13724</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -3562,13 +3553,13 @@
         <v>22822</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M29" s="7">
         <v>32</v>
@@ -3577,13 +3568,13 @@
         <v>36546</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3589,13 @@
         <v>44140</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H30" s="7">
         <v>43</v>
@@ -3613,13 +3604,13 @@
         <v>47490</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>174</v>
+        <v>33</v>
       </c>
       <c r="M30" s="7">
         <v>79</v>
@@ -3628,19 +3619,19 @@
         <v>91630</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
         <v>9</v>
@@ -3649,13 +3640,13 @@
         <v>10432</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -3664,13 +3655,13 @@
         <v>2868</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M31" s="7">
         <v>12</v>
@@ -3679,19 +3670,19 @@
         <v>13299</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="7">
         <v>38</v>
@@ -3700,13 +3691,13 @@
         <v>41070</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H32" s="7">
         <v>31</v>
@@ -3715,13 +3706,13 @@
         <v>33771</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M32" s="7">
         <v>69</v>
@@ -3730,13 +3721,13 @@
         <v>74842</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3742,13 @@
         <v>109366</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H33" s="7">
         <v>97</v>
@@ -3766,13 +3757,13 @@
         <v>106951</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M33" s="7">
         <v>192</v>
@@ -3781,18 +3772,18 @@
         <v>216318</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3813,7 +3804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6E1F69-ED25-4FE2-9D3B-8B4F8C556886}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280C531B-3E0B-4543-BDCC-294647F0DC69}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3830,7 +3821,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3937,13 +3928,13 @@
         <v>4011</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3952,10 +3943,10 @@
         <v>2717</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -3967,13 +3958,13 @@
         <v>6727</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,10 +3979,10 @@
         <v>3251</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>205</v>
@@ -4030,7 +4021,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -4060,7 +4051,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4081,7 +4072,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -4111,7 +4102,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4141,13 +4132,13 @@
         <v>8256</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -4156,13 +4147,13 @@
         <v>4959</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -4171,18 +4162,18 @@
         <v>13215</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4281,13 +4272,13 @@
         <v>233</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -4296,13 +4287,13 @@
         <v>1631</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -4311,13 +4302,13 @@
         <v>2314</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -4326,19 +4317,19 @@
         <v>3945</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7">
         <v>7</v>
@@ -4347,13 +4338,13 @@
         <v>7350</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -4362,13 +4353,13 @@
         <v>4109</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -4377,13 +4368,13 @@
         <v>11458</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,13 +4389,13 @@
         <v>22633</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -4413,13 +4404,13 @@
         <v>20603</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -4428,18 +4419,18 @@
         <v>43236</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4451,13 +4442,13 @@
         <v>1864</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -4466,13 +4457,13 @@
         <v>6155</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -4481,13 +4472,13 @@
         <v>8019</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,13 +4493,13 @@
         <v>17343</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H15" s="7">
         <v>9</v>
@@ -4517,13 +4508,13 @@
         <v>12332</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M15" s="7">
         <v>25</v>
@@ -4532,19 +4523,19 @@
         <v>29674</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="7">
         <v>3</v>
@@ -4553,13 +4544,13 @@
         <v>2975</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -4568,13 +4559,13 @@
         <v>1998</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -4583,19 +4574,19 @@
         <v>4973</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="7">
         <v>18</v>
@@ -4604,13 +4595,13 @@
         <v>17323</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -4619,13 +4610,13 @@
         <v>13190</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M17" s="7">
         <v>29</v>
@@ -4634,13 +4625,13 @@
         <v>30512</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +4646,13 @@
         <v>39505</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H18" s="7">
         <v>28</v>
@@ -4670,13 +4661,13 @@
         <v>33675</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M18" s="7">
         <v>67</v>
@@ -4685,18 +4676,18 @@
         <v>73179</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4708,13 +4699,13 @@
         <v>5177</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>286</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>287</v>
+        <v>121</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -4723,13 +4714,13 @@
         <v>3318</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4738,13 +4729,13 @@
         <v>8495</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,10 +4753,10 @@
         <v>292</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>158</v>
+        <v>293</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -4774,13 +4765,13 @@
         <v>10120</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M20" s="7">
         <v>25</v>
@@ -4789,19 +4780,19 @@
         <v>26473</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="7">
         <v>2</v>
@@ -4810,13 +4801,13 @@
         <v>2030</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>301</v>
+        <v>98</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -4852,7 +4843,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>7</v>
@@ -4864,10 +4855,10 @@
         <v>307</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -4876,13 +4867,13 @@
         <v>5762</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -4891,13 +4882,13 @@
         <v>12991</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,13 +4903,13 @@
         <v>30789</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -4927,13 +4918,13 @@
         <v>20302</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M23" s="7">
         <v>47</v>
@@ -4942,18 +4933,18 @@
         <v>51091</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4965,13 +4956,13 @@
         <v>15361</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -4980,13 +4971,13 @@
         <v>5989</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -4995,13 +4986,13 @@
         <v>21351</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +5007,13 @@
         <v>15327</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -5031,13 +5022,13 @@
         <v>14399</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -5046,19 +5037,19 @@
         <v>29726</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7">
         <v>2</v>
@@ -5067,13 +5058,13 @@
         <v>2470</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5082,13 +5073,13 @@
         <v>975</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -5097,19 +5088,19 @@
         <v>3445</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="7">
         <v>25</v>
@@ -5118,13 +5109,13 @@
         <v>25345</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="H27" s="7">
         <v>13</v>
@@ -5133,13 +5124,13 @@
         <v>15223</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M27" s="7">
         <v>38</v>
@@ -5148,13 +5139,13 @@
         <v>40568</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5160,13 @@
         <v>58503</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28" s="7">
         <v>31</v>
@@ -5184,13 +5175,13 @@
         <v>36587</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M28" s="7">
         <v>87</v>
@@ -5199,13 +5190,13 @@
         <v>95090</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5222,13 +5213,13 @@
         <v>32380</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H29" s="7">
         <v>21</v>
@@ -5237,13 +5228,13 @@
         <v>23328</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>353</v>
+        <v>53</v>
       </c>
       <c r="M29" s="7">
         <v>50</v>
@@ -5252,13 +5243,13 @@
         <v>55708</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>354</v>
+        <v>156</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5273,13 +5264,13 @@
         <v>59960</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H30" s="7">
         <v>40</v>
@@ -5288,13 +5279,13 @@
         <v>48124</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M30" s="7">
         <v>98</v>
@@ -5303,19 +5294,19 @@
         <v>108084</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
         <v>8</v>
@@ -5324,13 +5315,13 @@
         <v>9107</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -5339,13 +5330,13 @@
         <v>6390</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>68</v>
+        <v>366</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -5354,19 +5345,19 @@
         <v>15497</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="7">
         <v>58</v>
@@ -5375,13 +5366,13 @@
         <v>58240</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>374</v>
+        <v>309</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H32" s="7">
         <v>33</v>
@@ -5390,13 +5381,13 @@
         <v>38283</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M32" s="7">
         <v>91</v>
@@ -5405,13 +5396,13 @@
         <v>96523</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5417,13 @@
         <v>159686</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H33" s="7">
         <v>100</v>
@@ -5441,13 +5432,13 @@
         <v>116126</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M33" s="7">
         <v>253</v>
@@ -5456,18 +5447,18 @@
         <v>275812</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -5488,7 +5479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8ABAA6-39A8-4589-A7AF-F23A6CC72FB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F51302-0297-4D59-A5A7-08CAFD403AE2}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5505,7 +5496,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5618,7 +5609,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>311</v>
+        <v>379</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5633,7 +5624,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5648,7 +5639,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,13 +5654,13 @@
         <v>7585</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -5678,13 +5669,13 @@
         <v>9867</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M5" s="7">
         <v>31</v>
@@ -5693,19 +5684,19 @@
         <v>17452</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
         <v>7</v>
@@ -5714,13 +5705,13 @@
         <v>6649</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -5729,13 +5720,13 @@
         <v>7656</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M6" s="7">
         <v>22</v>
@@ -5744,19 +5735,19 @@
         <v>14305</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -5771,7 +5762,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>311</v>
+        <v>379</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -5780,13 +5771,13 @@
         <v>1437</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -5795,13 +5786,13 @@
         <v>1437</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>408</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,13 +5807,13 @@
         <v>14234</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
         <v>39</v>
@@ -5831,13 +5822,13 @@
         <v>18960</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M8" s="7">
         <v>56</v>
@@ -5846,18 +5837,18 @@
         <v>33194</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5869,13 +5860,13 @@
         <v>589</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5890,7 +5881,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -5899,13 +5890,13 @@
         <v>589</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5920,13 +5911,13 @@
         <v>23728</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H10" s="7">
         <v>54</v>
@@ -5935,34 +5926,34 @@
         <v>26585</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M10" s="7">
         <v>89</v>
       </c>
       <c r="N10" s="7">
-        <v>50312</v>
+        <v>50313</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>170</v>
+        <v>416</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7">
         <v>69</v>
@@ -5971,13 +5962,13 @@
         <v>51578</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="H11" s="7">
         <v>98</v>
@@ -5986,34 +5977,34 @@
         <v>50733</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="M11" s="7">
         <v>167</v>
       </c>
       <c r="N11" s="7">
-        <v>102311</v>
+        <v>102312</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7">
         <v>7</v>
@@ -6022,13 +6013,13 @@
         <v>5908</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -6037,13 +6028,13 @@
         <v>9005</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>434</v>
+        <v>301</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>319</v>
+        <v>432</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -6052,13 +6043,13 @@
         <v>14913</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6073,13 +6064,13 @@
         <v>81803</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="7">
         <v>169</v>
@@ -6088,33 +6079,33 @@
         <v>86323</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M13" s="7">
         <v>281</v>
       </c>
       <c r="N13" s="7">
-        <v>168126</v>
+        <v>168127</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6126,13 +6117,13 @@
         <v>1879</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -6141,13 +6132,13 @@
         <v>455</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -6156,13 +6147,13 @@
         <v>2334</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,13 +6168,13 @@
         <v>43487</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="H15" s="7">
         <v>53</v>
@@ -6192,13 +6183,13 @@
         <v>31270</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>395</v>
+        <v>240</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="M15" s="7">
         <v>107</v>
@@ -6207,19 +6198,19 @@
         <v>74757</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="7">
         <v>105</v>
@@ -6228,10 +6219,10 @@
         <v>87776</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>454</v>
@@ -6261,16 +6252,16 @@
         <v>458</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="7">
         <v>25</v>
@@ -6279,13 +6270,13 @@
         <v>71317</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -6294,13 +6285,13 @@
         <v>18742</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="M17" s="7">
         <v>54</v>
@@ -6309,13 +6300,13 @@
         <v>90059</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>469</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,13 +6321,13 @@
         <v>204458</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H18" s="7">
         <v>233</v>
@@ -6345,13 +6336,13 @@
         <v>141660</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M18" s="7">
         <v>420</v>
@@ -6360,18 +6351,18 @@
         <v>346118</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6383,13 +6374,13 @@
         <v>1107</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -6398,13 +6389,13 @@
         <v>639</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -6413,13 +6404,13 @@
         <v>1746</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,13 +6425,13 @@
         <v>28305</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
@@ -6449,13 +6440,13 @@
         <v>14073</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="M20" s="7">
         <v>63</v>
@@ -6464,19 +6455,19 @@
         <v>42378</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>70</v>
+        <v>479</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="7">
         <v>65</v>
@@ -6485,13 +6476,13 @@
         <v>56376</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>485</v>
+        <v>78</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H21" s="7">
         <v>84</v>
@@ -6500,13 +6491,13 @@
         <v>51010</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="M21" s="7">
         <v>149</v>
@@ -6515,19 +6506,19 @@
         <v>107386</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>28</v>
@@ -6536,13 +6527,13 @@
         <v>27052</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -6551,13 +6542,13 @@
         <v>12922</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -6566,13 +6557,13 @@
         <v>39974</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,13 +6578,13 @@
         <v>112841</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H23" s="7">
         <v>135</v>
@@ -6602,13 +6593,13 @@
         <v>78644</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M23" s="7">
         <v>265</v>
@@ -6617,18 +6608,18 @@
         <v>191485</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6646,7 +6637,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6661,7 +6652,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6676,7 +6667,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6691,13 +6682,13 @@
         <v>57739</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="H25" s="7">
         <v>71</v>
@@ -6706,13 +6697,13 @@
         <v>46178</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="M25" s="7">
         <v>148</v>
@@ -6721,19 +6712,19 @@
         <v>103916</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7">
         <v>160</v>
@@ -6742,13 +6733,13 @@
         <v>121887</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H26" s="7">
         <v>221</v>
@@ -6757,13 +6748,13 @@
         <v>136743</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="M26" s="7">
         <v>381</v>
@@ -6772,19 +6763,19 @@
         <v>258630</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="7">
         <v>27</v>
@@ -6793,13 +6784,13 @@
         <v>23378</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>524</v>
+        <v>325</v>
       </c>
       <c r="H27" s="7">
         <v>29</v>
@@ -6808,13 +6799,13 @@
         <v>18412</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="M27" s="7">
         <v>56</v>
@@ -6823,13 +6814,13 @@
         <v>41790</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>115</v>
+        <v>524</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6844,13 +6835,13 @@
         <v>203003</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28" s="7">
         <v>321</v>
@@ -6859,13 +6850,13 @@
         <v>201333</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M28" s="7">
         <v>585</v>
@@ -6874,13 +6865,13 @@
         <v>404336</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6897,13 +6888,13 @@
         <v>3575</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>531</v>
+        <v>442</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -6912,13 +6903,13 @@
         <v>1095</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -6927,13 +6918,13 @@
         <v>4670</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6948,13 +6939,13 @@
         <v>160844</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="H30" s="7">
         <v>226</v>
@@ -6963,13 +6954,13 @@
         <v>127973</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M30" s="7">
         <v>438</v>
@@ -6978,19 +6969,19 @@
         <v>288816</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
         <v>406</v>
@@ -6999,13 +6990,13 @@
         <v>324265</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="H31" s="7">
         <v>568</v>
@@ -7014,13 +7005,13 @@
         <v>337335</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="M31" s="7">
         <v>974</v>
@@ -7029,19 +7020,19 @@
         <v>661600</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>456</v>
+        <v>548</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="7">
         <v>87</v>
@@ -7050,13 +7041,13 @@
         <v>127655</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>250</v>
+        <v>553</v>
       </c>
       <c r="H32" s="7">
         <v>101</v>
@@ -7065,13 +7056,13 @@
         <v>60519</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="M32" s="7">
         <v>188</v>
@@ -7080,13 +7071,13 @@
         <v>188174</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,13 +7092,13 @@
         <v>616339</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H33" s="7">
         <v>897</v>
@@ -7116,13 +7107,13 @@
         <v>526921</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M33" s="7">
         <v>1607</v>
@@ -7131,18 +7122,18 @@
         <v>1143260</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P44AS1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P44AS1-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B58E92F-7A94-427D-98EE-7A3B0B8B120D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC101C66-409D-47D5-BE78-B1FF210A8723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EC338D78-82A5-4958-AB73-C9CA0E16ED30}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AB18E601-AEEE-450C-A57E-EE4214783989}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="566">
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2012 (Tasa respuesta: 2,95%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otras</t>
@@ -91,7 +91,7 @@
     <t>20,82%</t>
   </si>
   <si>
-    <t>80,51%</t>
+    <t>83,97%</t>
   </si>
   <si>
     <t>Endoscopia (Colonoscopia/Sigmoidoscopia/Rectoscopia)</t>
@@ -106,6 +106,9 @@
     <t>60,53%</t>
   </si>
   <si>
+    <t>16,03%</t>
+  </si>
+  <si>
     <t>Sangre oculta en heces</t>
   </si>
   <si>
@@ -124,1480 +127,1495 @@
     <t>18,64%</t>
   </si>
   <si>
-    <t>82,42%</t>
+    <t>77,58%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>23,38%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
   </si>
   <si>
     <t>7,8%</t>
   </si>
   <si>
-    <t>40,22%</t>
+    <t>39,0%</t>
   </si>
   <si>
     <t>16,05%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
   </si>
   <si>
     <t>30,06%</t>
   </si>
   <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
     <t>7,67%</t>
   </si>
   <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
+    <t>38,96%</t>
   </si>
   <si>
     <t>15,75%</t>
   </si>
   <si>
-    <t>40,65%</t>
+    <t>47,33%</t>
   </si>
   <si>
     <t>11,47%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
   </si>
   <si>
     <t>38,89%</t>
   </si>
   <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
   </si>
   <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
   </si>
   <si>
     <t>33,02%</t>
   </si>
   <si>
-    <t>16,62%</t>
+    <t>16,55%</t>
   </si>
   <si>
     <t>53,0%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>8,18%</t>
   </si>
   <si>
-    <t>25,84%</t>
+    <t>26,26%</t>
   </si>
   <si>
     <t>23,41%</t>
   </si>
   <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2016 (Tasa respuesta: 3,85%)</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
     <t>9,48%</t>
   </si>
   <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
   </si>
   <si>
     <t>20,28%</t>
   </si>
   <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2023 (Tasa respuesta: 18,38%)</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
   </si>
   <si>
     <t>52,99%</t>
   </si>
   <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2015 (Tasa respuesta: 3,85%)</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
   </si>
   <si>
     <t>16,26%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2023 (Tasa respuesta: 18,38%)</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
   </si>
   <si>
     <t>9,15%</t>
@@ -2129,7 +2147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A5DA15-1017-4C2E-87F7-E8A9B6A9C8C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1972055F-93A4-4623-A7A8-192B2670C848}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2337,7 +2355,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>15</v>
@@ -2346,7 +2364,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -2376,7 +2394,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -2391,13 +2409,13 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -2406,7 +2424,7 @@
         <v>909</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
@@ -2427,7 +2445,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2436,13 +2454,13 @@
         <v>909</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2457,13 +2475,13 @@
         <v>1685</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -2472,13 +2490,13 @@
         <v>3192</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -2487,18 +2505,18 @@
         <v>4876</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2510,13 +2528,13 @@
         <v>3160</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2525,13 +2543,13 @@
         <v>937</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -2540,13 +2558,13 @@
         <v>4097</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,13 +2579,13 @@
         <v>4063</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2576,13 +2594,13 @@
         <v>6009</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -2591,19 +2609,19 @@
         <v>10072</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -2612,13 +2630,13 @@
         <v>1036</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -2627,13 +2645,13 @@
         <v>1891</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -2642,19 +2660,19 @@
         <v>2927</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7">
         <v>5</v>
@@ -2663,13 +2681,13 @@
         <v>5256</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -2678,13 +2696,13 @@
         <v>3172</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -2693,13 +2711,13 @@
         <v>8429</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,13 +2732,13 @@
         <v>13516</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -2729,13 +2747,13 @@
         <v>12009</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -2744,18 +2762,18 @@
         <v>25525</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2767,13 +2785,13 @@
         <v>2158</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -2782,13 +2800,13 @@
         <v>8514</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -2797,13 +2815,13 @@
         <v>10672</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,13 +2836,13 @@
         <v>10067</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H15" s="7">
         <v>14</v>
@@ -2833,13 +2851,13 @@
         <v>15235</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M15" s="7">
         <v>22</v>
@@ -2848,19 +2866,19 @@
         <v>25302</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="7">
         <v>2</v>
@@ -2869,13 +2887,13 @@
         <v>2077</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2890,7 +2908,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2899,19 +2917,19 @@
         <v>2077</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="7">
         <v>10</v>
@@ -2920,13 +2938,13 @@
         <v>12078</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -2935,13 +2953,13 @@
         <v>12620</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -2950,13 +2968,13 @@
         <v>24698</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2989,13 @@
         <v>26380</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>33</v>
@@ -2986,13 +3004,13 @@
         <v>36369</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>55</v>
@@ -3001,18 +3019,18 @@
         <v>62749</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3024,13 +3042,13 @@
         <v>3252</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -3039,13 +3057,13 @@
         <v>5600</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -3054,13 +3072,13 @@
         <v>8852</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,13 +3093,13 @@
         <v>13683</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -3090,13 +3108,13 @@
         <v>12026</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -3105,19 +3123,19 @@
         <v>25708</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -3132,7 +3150,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -3147,7 +3165,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -3162,13 +3180,13 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>9</v>
@@ -3177,13 +3195,13 @@
         <v>9420</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -3192,13 +3210,13 @@
         <v>8794</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -3207,13 +3225,13 @@
         <v>18215</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3246,13 @@
         <v>26355</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -3243,13 +3261,13 @@
         <v>26420</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M23" s="7">
         <v>45</v>
@@ -3258,18 +3276,18 @@
         <v>52775</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3281,13 +3299,13 @@
         <v>5154</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -3296,13 +3314,13 @@
         <v>6756</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -3311,13 +3329,13 @@
         <v>11910</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,13 +3350,13 @@
         <v>15552</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -3347,13 +3365,13 @@
         <v>12044</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M25" s="7">
         <v>23</v>
@@ -3362,19 +3380,19 @@
         <v>27596</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" s="7">
         <v>6</v>
@@ -3383,13 +3401,13 @@
         <v>7318</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3398,13 +3416,13 @@
         <v>977</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -3413,19 +3431,19 @@
         <v>8295</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" s="7">
         <v>13</v>
@@ -3434,13 +3452,13 @@
         <v>13407</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H27" s="7">
         <v>8</v>
@@ -3449,13 +3467,13 @@
         <v>9185</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M27" s="7">
         <v>21</v>
@@ -3464,13 +3482,13 @@
         <v>22592</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,13 +3503,13 @@
         <v>41431</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H28" s="7">
         <v>26</v>
@@ -3500,13 +3518,13 @@
         <v>28962</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M28" s="7">
         <v>62</v>
@@ -3515,13 +3533,13 @@
         <v>70393</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3556,13 @@
         <v>13724</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -3553,13 +3571,13 @@
         <v>22822</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M29" s="7">
         <v>32</v>
@@ -3568,13 +3586,13 @@
         <v>36546</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3607,13 @@
         <v>44140</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H30" s="7">
         <v>43</v>
@@ -3604,13 +3622,13 @@
         <v>47490</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="M30" s="7">
         <v>79</v>
@@ -3619,19 +3637,19 @@
         <v>91630</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C31" s="7">
         <v>9</v>
@@ -3640,13 +3658,13 @@
         <v>10432</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -3655,13 +3673,13 @@
         <v>2868</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="M31" s="7">
         <v>12</v>
@@ -3670,19 +3688,19 @@
         <v>13299</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C32" s="7">
         <v>38</v>
@@ -3691,13 +3709,13 @@
         <v>41070</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H32" s="7">
         <v>31</v>
@@ -3706,13 +3724,13 @@
         <v>33771</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M32" s="7">
         <v>69</v>
@@ -3721,13 +3739,13 @@
         <v>74842</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,13 +3760,13 @@
         <v>109366</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H33" s="7">
         <v>97</v>
@@ -3757,13 +3775,13 @@
         <v>106951</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M33" s="7">
         <v>192</v>
@@ -3772,18 +3790,18 @@
         <v>216318</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3804,7 +3822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280C531B-3E0B-4543-BDCC-294647F0DC69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65394747-EDEC-41D7-8663-3D5938BCF0F5}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3821,7 +3839,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3928,13 +3946,13 @@
         <v>4011</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3943,10 +3961,10 @@
         <v>2717</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -3958,13 +3976,13 @@
         <v>6727</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,13 +3997,13 @@
         <v>3251</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>204</v>
+        <v>98</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3994,13 +4012,13 @@
         <v>2242</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -4009,19 +4027,19 @@
         <v>5494</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -4036,7 +4054,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4051,7 +4069,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4066,13 +4084,13 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -4081,13 +4099,13 @@
         <v>994</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4102,7 +4120,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4111,13 +4129,13 @@
         <v>994</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,13 +4150,13 @@
         <v>8256</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -4147,13 +4165,13 @@
         <v>4959</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -4162,18 +4180,18 @@
         <v>13215</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4185,13 +4203,13 @@
         <v>5966</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -4200,13 +4218,13 @@
         <v>5149</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -4215,13 +4233,13 @@
         <v>11116</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,13 +4254,13 @@
         <v>7686</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4251,13 +4269,13 @@
         <v>9031</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -4266,19 +4284,19 @@
         <v>16717</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -4287,13 +4305,13 @@
         <v>1631</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -4302,13 +4320,13 @@
         <v>2314</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -4317,19 +4335,19 @@
         <v>3945</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7">
         <v>7</v>
@@ -4338,13 +4356,13 @@
         <v>7350</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -4353,13 +4371,13 @@
         <v>4109</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>245</v>
+        <v>152</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -4368,13 +4386,13 @@
         <v>11458</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,13 +4407,13 @@
         <v>22633</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -4404,13 +4422,13 @@
         <v>20603</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -4419,18 +4437,18 @@
         <v>43236</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4442,13 +4460,13 @@
         <v>1864</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -4457,13 +4475,13 @@
         <v>6155</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>252</v>
+        <v>119</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -4472,13 +4490,13 @@
         <v>8019</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,13 +4511,13 @@
         <v>17343</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H15" s="7">
         <v>9</v>
@@ -4508,13 +4526,13 @@
         <v>12332</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M15" s="7">
         <v>25</v>
@@ -4523,19 +4541,19 @@
         <v>29674</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="7">
         <v>3</v>
@@ -4544,13 +4562,13 @@
         <v>2975</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -4559,13 +4577,13 @@
         <v>1998</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -4574,19 +4592,19 @@
         <v>4973</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="7">
         <v>18</v>
@@ -4595,13 +4613,13 @@
         <v>17323</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -4610,13 +4628,13 @@
         <v>13190</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>279</v>
+        <v>32</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
         <v>29</v>
@@ -4625,13 +4643,13 @@
         <v>30512</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,13 +4664,13 @@
         <v>39505</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>28</v>
@@ -4661,13 +4679,13 @@
         <v>33675</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>67</v>
@@ -4676,18 +4694,18 @@
         <v>73179</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4699,13 +4717,13 @@
         <v>5177</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>121</v>
+        <v>287</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -4714,13 +4732,13 @@
         <v>3318</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>286</v>
+        <v>122</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4729,13 +4747,13 @@
         <v>8495</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,13 +4768,13 @@
         <v>16353</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -4765,13 +4783,13 @@
         <v>10120</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M20" s="7">
         <v>25</v>
@@ -4780,19 +4798,19 @@
         <v>26473</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="7">
         <v>2</v>
@@ -4801,13 +4819,13 @@
         <v>2030</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>98</v>
+        <v>303</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -4816,13 +4834,13 @@
         <v>1103</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -4831,19 +4849,19 @@
         <v>3133</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>7</v>
@@ -4852,13 +4870,13 @@
         <v>7229</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>85</v>
+        <v>310</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -4867,13 +4885,13 @@
         <v>5762</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -4882,13 +4900,13 @@
         <v>12991</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,13 +4921,13 @@
         <v>30789</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -4918,13 +4936,13 @@
         <v>20302</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M23" s="7">
         <v>47</v>
@@ -4933,18 +4951,18 @@
         <v>51091</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4956,13 +4974,13 @@
         <v>15361</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>315</v>
+        <v>67</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -4971,13 +4989,13 @@
         <v>5989</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -4986,13 +5004,13 @@
         <v>21351</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,13 +5025,13 @@
         <v>15327</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -5022,13 +5040,13 @@
         <v>14399</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -5037,19 +5055,19 @@
         <v>29726</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>145</v>
+        <v>332</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" s="7">
         <v>2</v>
@@ -5058,13 +5076,13 @@
         <v>2470</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5073,13 +5091,13 @@
         <v>975</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -5088,19 +5106,19 @@
         <v>3445</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" s="7">
         <v>25</v>
@@ -5109,13 +5127,13 @@
         <v>25345</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H27" s="7">
         <v>13</v>
@@ -5124,13 +5142,13 @@
         <v>15223</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M27" s="7">
         <v>38</v>
@@ -5139,13 +5157,13 @@
         <v>40568</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,13 +5178,13 @@
         <v>58503</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H28" s="7">
         <v>31</v>
@@ -5175,13 +5193,13 @@
         <v>36587</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M28" s="7">
         <v>87</v>
@@ -5190,13 +5208,13 @@
         <v>95090</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,13 +5231,13 @@
         <v>32380</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>73</v>
+        <v>350</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="H29" s="7">
         <v>21</v>
@@ -5228,13 +5246,13 @@
         <v>23328</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>350</v>
+        <v>163</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>53</v>
+        <v>354</v>
       </c>
       <c r="M29" s="7">
         <v>50</v>
@@ -5243,13 +5261,13 @@
         <v>55708</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>156</v>
+        <v>355</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5264,13 +5282,13 @@
         <v>59960</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H30" s="7">
         <v>40</v>
@@ -5279,13 +5297,13 @@
         <v>48124</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="M30" s="7">
         <v>98</v>
@@ -5294,19 +5312,19 @@
         <v>108084</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C31" s="7">
         <v>8</v>
@@ -5315,13 +5333,13 @@
         <v>9107</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -5330,13 +5348,13 @@
         <v>6390</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -5345,19 +5363,19 @@
         <v>15497</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>369</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C32" s="7">
         <v>58</v>
@@ -5366,13 +5384,13 @@
         <v>58240</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>309</v>
+        <v>375</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="H32" s="7">
         <v>33</v>
@@ -5381,13 +5399,13 @@
         <v>38283</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="M32" s="7">
         <v>91</v>
@@ -5396,13 +5414,13 @@
         <v>96523</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5435,13 @@
         <v>159686</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H33" s="7">
         <v>100</v>
@@ -5432,13 +5450,13 @@
         <v>116126</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M33" s="7">
         <v>253</v>
@@ -5447,18 +5465,18 @@
         <v>275812</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -5479,7 +5497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F51302-0297-4D59-A5A7-08CAFD403AE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E1824F-0123-4D5B-9448-3AE967264493}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5496,7 +5514,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5609,7 +5627,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5624,7 +5642,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5639,7 +5657,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,13 +5672,13 @@
         <v>7585</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -5669,13 +5687,13 @@
         <v>9867</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M5" s="7">
         <v>31</v>
@@ -5684,19 +5702,19 @@
         <v>17452</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7">
         <v>7</v>
@@ -5705,13 +5723,13 @@
         <v>6649</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -5720,13 +5738,13 @@
         <v>7656</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="M6" s="7">
         <v>22</v>
@@ -5735,19 +5753,19 @@
         <v>14305</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -5762,7 +5780,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -5771,13 +5789,13 @@
         <v>1437</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>400</v>
+        <v>147</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -5786,13 +5804,13 @@
         <v>1437</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,13 +5825,13 @@
         <v>14234</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7">
         <v>39</v>
@@ -5822,13 +5840,13 @@
         <v>18960</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M8" s="7">
         <v>56</v>
@@ -5837,18 +5855,18 @@
         <v>33194</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5860,13 +5878,13 @@
         <v>589</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5881,7 +5899,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -5890,13 +5908,13 @@
         <v>589</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5911,13 +5929,13 @@
         <v>23728</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H10" s="7">
         <v>54</v>
@@ -5926,13 +5944,13 @@
         <v>26585</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="M10" s="7">
         <v>89</v>
@@ -5941,19 +5959,19 @@
         <v>50313</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="7">
         <v>69</v>
@@ -5962,13 +5980,13 @@
         <v>51578</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="H11" s="7">
         <v>98</v>
@@ -5977,13 +5995,13 @@
         <v>50733</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="M11" s="7">
         <v>167</v>
@@ -5992,19 +6010,19 @@
         <v>102312</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7">
         <v>7</v>
@@ -6013,13 +6031,13 @@
         <v>5908</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -6028,13 +6046,13 @@
         <v>9005</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -6043,13 +6061,13 @@
         <v>14913</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6064,13 +6082,13 @@
         <v>81803</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H13" s="7">
         <v>169</v>
@@ -6079,13 +6097,13 @@
         <v>86323</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M13" s="7">
         <v>281</v>
@@ -6094,18 +6112,18 @@
         <v>168127</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6117,13 +6135,13 @@
         <v>1879</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -6132,13 +6150,13 @@
         <v>455</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -6147,13 +6165,13 @@
         <v>2334</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6168,13 +6186,13 @@
         <v>43487</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="H15" s="7">
         <v>53</v>
@@ -6183,13 +6201,13 @@
         <v>31270</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M15" s="7">
         <v>107</v>
@@ -6198,19 +6216,19 @@
         <v>74757</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="7">
         <v>105</v>
@@ -6219,13 +6237,13 @@
         <v>87776</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="H16" s="7">
         <v>150</v>
@@ -6234,13 +6252,13 @@
         <v>91192</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="M16" s="7">
         <v>255</v>
@@ -6249,19 +6267,19 @@
         <v>178967</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>323</v>
+        <v>463</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="7">
         <v>25</v>
@@ -6270,13 +6288,13 @@
         <v>71317</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -6285,13 +6303,13 @@
         <v>18742</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="M17" s="7">
         <v>54</v>
@@ -6300,13 +6318,13 @@
         <v>90059</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>154</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,13 +6339,13 @@
         <v>204458</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>233</v>
@@ -6336,13 +6354,13 @@
         <v>141660</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>420</v>
@@ -6351,18 +6369,18 @@
         <v>346118</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6374,13 +6392,13 @@
         <v>1107</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -6389,13 +6407,13 @@
         <v>639</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -6404,13 +6422,13 @@
         <v>1746</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6425,13 +6443,13 @@
         <v>28305</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
@@ -6440,13 +6458,13 @@
         <v>14073</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="M20" s="7">
         <v>63</v>
@@ -6455,19 +6473,19 @@
         <v>42378</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="7">
         <v>65</v>
@@ -6476,13 +6494,13 @@
         <v>56376</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="H21" s="7">
         <v>84</v>
@@ -6491,13 +6509,13 @@
         <v>51010</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="M21" s="7">
         <v>149</v>
@@ -6506,19 +6524,19 @@
         <v>107386</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>28</v>
@@ -6527,13 +6545,13 @@
         <v>27052</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>490</v>
+        <v>63</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -6542,13 +6560,13 @@
         <v>12922</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -6557,13 +6575,13 @@
         <v>39974</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,13 +6596,13 @@
         <v>112841</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H23" s="7">
         <v>135</v>
@@ -6593,13 +6611,13 @@
         <v>78644</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M23" s="7">
         <v>265</v>
@@ -6608,18 +6626,18 @@
         <v>191485</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6637,7 +6655,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6652,7 +6670,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6667,7 +6685,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,13 +6700,13 @@
         <v>57739</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="H25" s="7">
         <v>71</v>
@@ -6697,13 +6715,13 @@
         <v>46178</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="M25" s="7">
         <v>148</v>
@@ -6712,19 +6730,19 @@
         <v>103916</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" s="7">
         <v>160</v>
@@ -6733,13 +6751,13 @@
         <v>121887</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="H26" s="7">
         <v>221</v>
@@ -6748,13 +6766,13 @@
         <v>136743</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="M26" s="7">
         <v>381</v>
@@ -6763,19 +6781,19 @@
         <v>258630</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" s="7">
         <v>27</v>
@@ -6784,13 +6802,13 @@
         <v>23378</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>325</v>
+        <v>525</v>
       </c>
       <c r="H27" s="7">
         <v>29</v>
@@ -6799,13 +6817,13 @@
         <v>18412</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="M27" s="7">
         <v>56</v>
@@ -6814,13 +6832,13 @@
         <v>41790</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6835,13 +6853,13 @@
         <v>203003</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H28" s="7">
         <v>321</v>
@@ -6850,13 +6868,13 @@
         <v>201333</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M28" s="7">
         <v>585</v>
@@ -6865,13 +6883,13 @@
         <v>404336</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,13 +6906,13 @@
         <v>3575</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -6903,13 +6921,13 @@
         <v>1095</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -6918,13 +6936,13 @@
         <v>4670</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,13 +6957,13 @@
         <v>160844</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="H30" s="7">
         <v>226</v>
@@ -6954,13 +6972,13 @@
         <v>127973</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="M30" s="7">
         <v>438</v>
@@ -6969,19 +6987,19 @@
         <v>288816</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C31" s="7">
         <v>406</v>
@@ -6990,13 +7008,13 @@
         <v>324265</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="H31" s="7">
         <v>568</v>
@@ -7005,13 +7023,13 @@
         <v>337335</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="M31" s="7">
         <v>974</v>
@@ -7020,19 +7038,19 @@
         <v>661600</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C32" s="7">
         <v>87</v>
@@ -7041,13 +7059,13 @@
         <v>127655</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="H32" s="7">
         <v>101</v>
@@ -7056,13 +7074,13 @@
         <v>60519</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="M32" s="7">
         <v>188</v>
@@ -7071,13 +7089,13 @@
         <v>188174</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7092,13 +7110,13 @@
         <v>616339</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H33" s="7">
         <v>897</v>
@@ -7107,13 +7125,13 @@
         <v>526921</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M33" s="7">
         <v>1607</v>
@@ -7122,18 +7140,18 @@
         <v>1143260</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
